--- a/AIS/input/Aggregate_MD_VA_Data_Original.xlsx
+++ b/AIS/input/Aggregate_MD_VA_Data_Original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpatter5/r_projects/stat634/AIS/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90676689-33A1-B842-9197-7472C1616114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DCC243-7F7D-354D-92D5-C6692054F1F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
